--- a/Project Documents/IAC IP23 - LP Lessons Learnt Log.xlsx
+++ b/Project Documents/IAC IP23 - LP Lessons Learnt Log.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IAC 2023\Live Project Machine Learning\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IAC 2023\Live Project Machine Learning\Output - Github\Project Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAF2C85-69CB-470F-8E8C-9284F01551DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56233763-8BB8-44AA-9C36-70C07436A8C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C366C1F5-07C0-5745-ACD1-E33763876AD4}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
   <si>
     <t>LESSONS LEARNED</t>
   </si>
@@ -299,6 +299,9 @@
   </si>
   <si>
     <t xml:space="preserve">Data Scientist	</t>
+  </si>
+  <si>
+    <t>IP23-000346</t>
   </si>
 </sst>
 </file>
@@ -560,6 +563,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -572,10 +579,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1197,7 +1200,7 @@
   <dimension ref="B1:M52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -1218,34 +1221,34 @@
   <sheetData>
     <row r="1" spans="2:13" ht="60.75" customHeight="1">
       <c r="B1" s="1"/>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="2:13" ht="22.5" customHeight="1">
       <c r="B2" s="3"/>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
       <c r="M2" s="4"/>
     </row>
     <row r="3" spans="2:13">
@@ -1267,7 +1270,9 @@
       <c r="C5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="13" t="s">
+        <v>77</v>
+      </c>
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="2:13">
@@ -1380,10 +1385,10 @@
       <c r="G12" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="27" t="s">
+      <c r="H12" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="27" t="s">
+      <c r="I12" s="23" t="s">
         <v>62</v>
       </c>
       <c r="J12" t="s">
@@ -1392,7 +1397,7 @@
       <c r="K12" t="s">
         <v>68</v>
       </c>
-      <c r="L12" s="27" t="s">
+      <c r="L12" s="23" t="s">
         <v>69</v>
       </c>
       <c r="M12" s="4"/>
@@ -1414,10 +1419,10 @@
       <c r="G13" t="s">
         <v>55</v>
       </c>
-      <c r="H13" s="27" t="s">
+      <c r="H13" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="I13" s="27" t="s">
+      <c r="I13" s="23" t="s">
         <v>63</v>
       </c>
       <c r="J13" t="s">
@@ -1426,7 +1431,7 @@
       <c r="K13" t="s">
         <v>68</v>
       </c>
-      <c r="L13" s="27" t="s">
+      <c r="L13" s="23" t="s">
         <v>70</v>
       </c>
       <c r="M13" s="4"/>
@@ -1436,7 +1441,7 @@
       <c r="C14">
         <v>3</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="24">
         <v>45157</v>
       </c>
       <c r="E14" t="s">
@@ -1448,10 +1453,10 @@
       <c r="G14" t="s">
         <v>55</v>
       </c>
-      <c r="H14" s="27" t="s">
+      <c r="H14" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="I14" s="27" t="s">
+      <c r="I14" s="23" t="s">
         <v>64</v>
       </c>
       <c r="J14" t="s">
@@ -1460,7 +1465,7 @@
       <c r="K14" t="s">
         <v>68</v>
       </c>
-      <c r="L14" s="27" t="s">
+      <c r="L14" s="23" t="s">
         <v>71</v>
       </c>
       <c r="M14" s="4"/>
@@ -1482,10 +1487,10 @@
       <c r="G15" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="27" t="s">
+      <c r="H15" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="I15" s="27" t="s">
+      <c r="I15" s="23" t="s">
         <v>65</v>
       </c>
       <c r="J15" t="s">
@@ -1494,7 +1499,7 @@
       <c r="K15" t="s">
         <v>68</v>
       </c>
-      <c r="L15" s="27" t="s">
+      <c r="L15" s="23" t="s">
         <v>72</v>
       </c>
       <c r="M15" s="4"/>
@@ -1516,10 +1521,10 @@
       <c r="G16" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="27" t="s">
+      <c r="H16" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="I16" s="27" t="s">
+      <c r="I16" s="23" t="s">
         <v>66</v>
       </c>
       <c r="J16" t="s">
@@ -1528,7 +1533,7 @@
       <c r="K16" t="s">
         <v>68</v>
       </c>
-      <c r="L16" s="27" t="s">
+      <c r="L16" s="23" t="s">
         <v>73</v>
       </c>
       <c r="M16" s="4"/>
@@ -1550,10 +1555,10 @@
       <c r="G17" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="27" t="s">
+      <c r="H17" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="I17" s="27" t="s">
+      <c r="I17" s="23" t="s">
         <v>67</v>
       </c>
       <c r="J17" t="s">
@@ -1562,7 +1567,7 @@
       <c r="K17" t="s">
         <v>68</v>
       </c>
-      <c r="L17" s="27" t="s">
+      <c r="L17" s="23" t="s">
         <v>74</v>
       </c>
       <c r="M17" s="4"/>
